--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H2">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I2">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J2">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8140282978361</v>
+        <v>13.11540266666667</v>
       </c>
       <c r="N2">
-        <v>12.8140282978361</v>
+        <v>39.346208</v>
       </c>
       <c r="O2">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="P2">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="Q2">
-        <v>1995.204656184072</v>
+        <v>2050.216519453344</v>
       </c>
       <c r="R2">
-        <v>1995.204656184072</v>
+        <v>18451.94867508009</v>
       </c>
       <c r="S2">
-        <v>0.03958583825302912</v>
+        <v>0.03827010162171712</v>
       </c>
       <c r="T2">
-        <v>0.03958583825302912</v>
+        <v>0.03827010162171712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H3">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I3">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J3">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.59555868437139</v>
+        <v>3.748853</v>
       </c>
       <c r="N3">
-        <v>3.59555868437139</v>
+        <v>11.246559</v>
       </c>
       <c r="O3">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="P3">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="Q3">
-        <v>559.8454492138372</v>
+        <v>586.025495742987</v>
       </c>
       <c r="R3">
-        <v>559.8454492138372</v>
+        <v>5274.229461686883</v>
       </c>
       <c r="S3">
-        <v>0.01110760809954164</v>
+        <v>0.0109389691587214</v>
       </c>
       <c r="T3">
-        <v>0.01110760809954164</v>
+        <v>0.0109389691587214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H4">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I4">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J4">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4782383801393</v>
+        <v>20.20911666666666</v>
       </c>
       <c r="N4">
-        <v>19.4782383801393</v>
+        <v>60.62734999999999</v>
       </c>
       <c r="O4">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="P4">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="Q4">
-        <v>3032.853604426644</v>
+        <v>3159.114964793549</v>
       </c>
       <c r="R4">
-        <v>3032.853604426644</v>
+        <v>28432.03468314195</v>
       </c>
       <c r="S4">
-        <v>0.0601733019506713</v>
+        <v>0.05896921110048041</v>
       </c>
       <c r="T4">
-        <v>0.0601733019506713</v>
+        <v>0.05896921110048042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H5">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I5">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J5">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.7602332797391</v>
+        <v>28.371807</v>
       </c>
       <c r="N5">
-        <v>26.7602332797391</v>
+        <v>85.115421</v>
       </c>
       <c r="O5">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="P5">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="Q5">
-        <v>4166.694563123739</v>
+        <v>4435.117157781153</v>
       </c>
       <c r="R5">
-        <v>4166.694563123739</v>
+        <v>39916.05442003038</v>
       </c>
       <c r="S5">
-        <v>0.08266926228061844</v>
+        <v>0.08278754108261807</v>
       </c>
       <c r="T5">
-        <v>0.08266926228061844</v>
+        <v>0.08278754108261807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>155.704717502536</v>
+        <v>156.321279</v>
       </c>
       <c r="H6">
-        <v>155.704717502536</v>
+        <v>468.963837</v>
       </c>
       <c r="I6">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="J6">
-        <v>0.2054364106393654</v>
+        <v>0.2042860988193865</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.8521872921345</v>
+        <v>4.564941666666667</v>
       </c>
       <c r="N6">
-        <v>3.8521872921345</v>
+        <v>13.694825</v>
       </c>
       <c r="O6">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="P6">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="Q6">
-        <v>599.8037340886615</v>
+        <v>713.597519893725</v>
       </c>
       <c r="R6">
-        <v>599.8037340886615</v>
+        <v>6422.377679043525</v>
       </c>
       <c r="S6">
-        <v>0.01190040005550494</v>
+        <v>0.01332027585584949</v>
       </c>
       <c r="T6">
-        <v>0.01190040005550494</v>
+        <v>0.01332027585584949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>331.632421038158</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H7">
-        <v>331.632421038158</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I7">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J7">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8140282978361</v>
+        <v>13.11540266666667</v>
       </c>
       <c r="N7">
-        <v>12.8140282978361</v>
+        <v>39.346208</v>
       </c>
       <c r="O7">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="P7">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="Q7">
-        <v>4249.547227662852</v>
+        <v>4349.895989278712</v>
       </c>
       <c r="R7">
-        <v>4249.547227662852</v>
+        <v>39149.06390350841</v>
       </c>
       <c r="S7">
-        <v>0.08431309975218418</v>
+        <v>0.08119677115760572</v>
       </c>
       <c r="T7">
-        <v>0.08431309975218418</v>
+        <v>0.08119677115760571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>331.632421038158</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H8">
-        <v>331.632421038158</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I8">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J8">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.59555868437139</v>
+        <v>3.748853</v>
       </c>
       <c r="N8">
-        <v>3.59555868437139</v>
+        <v>11.246559</v>
       </c>
       <c r="O8">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="P8">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="Q8">
-        <v>1192.403831482858</v>
+        <v>1243.356459847069</v>
       </c>
       <c r="R8">
-        <v>1192.403831482858</v>
+        <v>11190.20813862362</v>
       </c>
       <c r="S8">
-        <v>0.02365787642840077</v>
+        <v>0.02320895262469794</v>
       </c>
       <c r="T8">
-        <v>0.02365787642840077</v>
+        <v>0.02320895262469794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>331.632421038158</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H9">
-        <v>331.632421038158</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I9">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J9">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.4782383801393</v>
+        <v>20.20911666666666</v>
       </c>
       <c r="N9">
-        <v>19.4782383801393</v>
+        <v>60.62734999999999</v>
       </c>
       <c r="O9">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="P9">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="Q9">
-        <v>6459.615351563964</v>
+        <v>6702.61964267552</v>
       </c>
       <c r="R9">
-        <v>6459.615351563964</v>
+        <v>60323.57678407968</v>
       </c>
       <c r="S9">
-        <v>0.1281619345119471</v>
+        <v>0.1251135830889235</v>
       </c>
       <c r="T9">
-        <v>0.1281619345119471</v>
+        <v>0.1251135830889235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>331.632421038158</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H10">
-        <v>331.632421038158</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I10">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J10">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.7602332797391</v>
+        <v>28.371807</v>
       </c>
       <c r="N10">
-        <v>26.7602332797391</v>
+        <v>85.115421</v>
       </c>
       <c r="O10">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="P10">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="Q10">
-        <v>8874.560950105764</v>
+        <v>9409.883372590039</v>
       </c>
       <c r="R10">
-        <v>8874.560950105764</v>
+        <v>84688.95035331033</v>
       </c>
       <c r="S10">
-        <v>0.176075638781551</v>
+        <v>0.1756483715259236</v>
       </c>
       <c r="T10">
-        <v>0.176075638781551</v>
+        <v>0.1756483715259236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>331.632421038158</v>
+        <v>331.6631673333333</v>
       </c>
       <c r="H11">
-        <v>331.632421038158</v>
+        <v>994.9895019999999</v>
       </c>
       <c r="I11">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="J11">
-        <v>0.4375549779255232</v>
+        <v>0.4334289932249598</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.8521872921345</v>
+        <v>4.564941666666667</v>
       </c>
       <c r="N11">
-        <v>3.8521872921345</v>
+        <v>13.694825</v>
       </c>
       <c r="O11">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="P11">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="Q11">
-        <v>1277.51019798299</v>
+        <v>1514.023011858572</v>
       </c>
       <c r="R11">
-        <v>1277.51019798299</v>
+        <v>13626.20710672715</v>
       </c>
       <c r="S11">
-        <v>0.02534642845144017</v>
+        <v>0.02826131482780902</v>
       </c>
       <c r="T11">
-        <v>0.02534642845144017</v>
+        <v>0.02826131482780902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.58451713478711</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H12">
-        <v>92.58451713478711</v>
+        <v>280.802887</v>
       </c>
       <c r="I12">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J12">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8140282978361</v>
+        <v>13.11540266666667</v>
       </c>
       <c r="N12">
-        <v>12.8140282978361</v>
+        <v>39.346208</v>
       </c>
       <c r="O12">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="P12">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="Q12">
-        <v>1186.380622506653</v>
+        <v>1227.614310989166</v>
       </c>
       <c r="R12">
-        <v>1186.380622506653</v>
+        <v>11048.52879890249</v>
       </c>
       <c r="S12">
-        <v>0.02353837301026408</v>
+        <v>0.02291510383808453</v>
       </c>
       <c r="T12">
-        <v>0.02353837301026408</v>
+        <v>0.02291510383808453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.58451713478711</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H13">
-        <v>92.58451713478711</v>
+        <v>280.802887</v>
       </c>
       <c r="I13">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J13">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.59555868437139</v>
+        <v>3.748853</v>
       </c>
       <c r="N13">
-        <v>3.59555868437139</v>
+        <v>11.246559</v>
       </c>
       <c r="O13">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="P13">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="Q13">
-        <v>332.8930646223155</v>
+        <v>350.8962484462036</v>
       </c>
       <c r="R13">
-        <v>332.8930646223155</v>
+        <v>3158.066236015833</v>
       </c>
       <c r="S13">
-        <v>0.006604761557091315</v>
+        <v>0.006549959460036</v>
       </c>
       <c r="T13">
-        <v>0.006604761557091315</v>
+        <v>0.006549959460036001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>92.58451713478711</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H14">
-        <v>92.58451713478711</v>
+        <v>280.802887</v>
       </c>
       <c r="I14">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J14">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>19.4782383801393</v>
+        <v>20.20911666666666</v>
       </c>
       <c r="N14">
-        <v>19.4782383801393</v>
+        <v>60.62734999999999</v>
       </c>
       <c r="O14">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="P14">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="Q14">
-        <v>1803.383295061475</v>
+        <v>1891.592767906605</v>
       </c>
       <c r="R14">
-        <v>1803.383295061475</v>
+        <v>17024.33491115945</v>
       </c>
       <c r="S14">
-        <v>0.03578000843434887</v>
+        <v>0.03530917186931697</v>
       </c>
       <c r="T14">
-        <v>0.03578000843434887</v>
+        <v>0.03530917186931697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>92.58451713478711</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H15">
-        <v>92.58451713478711</v>
+        <v>280.802887</v>
       </c>
       <c r="I15">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J15">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.7602332797391</v>
+        <v>28.371807</v>
       </c>
       <c r="N15">
-        <v>26.7602332797391</v>
+        <v>85.115421</v>
       </c>
       <c r="O15">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="P15">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="Q15">
-        <v>2477.583276618905</v>
+        <v>2655.628438335603</v>
       </c>
       <c r="R15">
-        <v>2477.583276618905</v>
+        <v>23900.65594502043</v>
       </c>
       <c r="S15">
-        <v>0.04915646650214992</v>
+        <v>0.04957094494181703</v>
       </c>
       <c r="T15">
-        <v>0.04915646650214992</v>
+        <v>0.04957094494181703</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>92.58451713478711</v>
+        <v>93.60096233333333</v>
       </c>
       <c r="H16">
-        <v>92.58451713478711</v>
+        <v>280.802887</v>
       </c>
       <c r="I16">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="J16">
-        <v>0.1221557778468703</v>
+        <v>0.1223210017416567</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.8521872921345</v>
+        <v>4.564941666666667</v>
       </c>
       <c r="N16">
-        <v>3.8521872921345</v>
+        <v>13.694825</v>
       </c>
       <c r="O16">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="P16">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="Q16">
-        <v>356.6529003550357</v>
+        <v>427.2829329955305</v>
       </c>
       <c r="R16">
-        <v>356.6529003550357</v>
+        <v>3845.546396959775</v>
       </c>
       <c r="S16">
-        <v>0.007076168343016153</v>
+        <v>0.007975821632402187</v>
       </c>
       <c r="T16">
-        <v>0.007076168343016153</v>
+        <v>0.007975821632402189</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.53003224009861</v>
+        <v>92.30992400000001</v>
       </c>
       <c r="H17">
-        <v>91.53003224009861</v>
+        <v>276.929772</v>
       </c>
       <c r="I17">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="J17">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8140282978361</v>
+        <v>13.11540266666667</v>
       </c>
       <c r="N17">
-        <v>12.8140282978361</v>
+        <v>39.346208</v>
       </c>
       <c r="O17">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="P17">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="Q17">
-        <v>1172.868423226474</v>
+        <v>1210.681823389397</v>
       </c>
       <c r="R17">
-        <v>1172.868423226474</v>
+        <v>10896.13641050458</v>
       </c>
       <c r="S17">
-        <v>0.02327028435405029</v>
+        <v>0.02259903574722533</v>
       </c>
       <c r="T17">
-        <v>0.02327028435405029</v>
+        <v>0.02259903574722533</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.53003224009861</v>
+        <v>92.30992400000001</v>
       </c>
       <c r="H18">
-        <v>91.53003224009861</v>
+        <v>276.929772</v>
       </c>
       <c r="I18">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="J18">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.59555868437139</v>
+        <v>3.748853</v>
       </c>
       <c r="N18">
-        <v>3.59555868437139</v>
+        <v>11.246559</v>
       </c>
       <c r="O18">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="P18">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="Q18">
-        <v>329.1016023016799</v>
+        <v>346.056335517172</v>
       </c>
       <c r="R18">
-        <v>329.1016023016799</v>
+        <v>3114.507019654548</v>
       </c>
       <c r="S18">
-        <v>0.006529537086407596</v>
+        <v>0.0064596158510187</v>
       </c>
       <c r="T18">
-        <v>0.006529537086407596</v>
+        <v>0.0064596158510187</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.53003224009861</v>
+        <v>92.30992400000001</v>
       </c>
       <c r="H19">
-        <v>91.53003224009861</v>
+        <v>276.929772</v>
       </c>
       <c r="I19">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="J19">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.4782383801393</v>
+        <v>20.20911666666666</v>
       </c>
       <c r="N19">
-        <v>19.4782383801393</v>
+        <v>60.62734999999999</v>
       </c>
       <c r="O19">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="P19">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="Q19">
-        <v>1782.843786914476</v>
+        <v>1865.502023607133</v>
       </c>
       <c r="R19">
-        <v>1782.843786914476</v>
+        <v>16789.5182124642</v>
       </c>
       <c r="S19">
-        <v>0.0353724945260469</v>
+        <v>0.03482215236369262</v>
       </c>
       <c r="T19">
-        <v>0.0353724945260469</v>
+        <v>0.03482215236369263</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>91.53003224009861</v>
+        <v>92.30992400000001</v>
       </c>
       <c r="H20">
-        <v>91.53003224009861</v>
+        <v>276.929772</v>
       </c>
       <c r="I20">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="J20">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.7602332797391</v>
+        <v>28.371807</v>
       </c>
       <c r="N20">
-        <v>26.7602332797391</v>
+        <v>85.115421</v>
       </c>
       <c r="O20">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="P20">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="Q20">
-        <v>2449.36501484708</v>
+        <v>2618.999347912668</v>
       </c>
       <c r="R20">
-        <v>2449.36501484708</v>
+        <v>23570.99413121401</v>
       </c>
       <c r="S20">
-        <v>0.04859660235847981</v>
+        <v>0.04888721276060793</v>
       </c>
       <c r="T20">
-        <v>0.04859660235847981</v>
+        <v>0.04888721276060793</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>91.53003224009861</v>
+        <v>92.30992400000001</v>
       </c>
       <c r="H21">
-        <v>91.53003224009861</v>
+        <v>276.929772</v>
       </c>
       <c r="I21">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="J21">
-        <v>0.1207644931426371</v>
+        <v>0.1206338278250273</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.8521872921345</v>
+        <v>4.564941666666667</v>
       </c>
       <c r="N21">
-        <v>3.8521872921345</v>
+        <v>13.694825</v>
       </c>
       <c r="O21">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="P21">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="Q21">
-        <v>352.5908270439689</v>
+        <v>421.3894183144334</v>
       </c>
       <c r="R21">
-        <v>352.5908270439689</v>
+        <v>3792.5047648299</v>
       </c>
       <c r="S21">
-        <v>0.006995574817652506</v>
+        <v>0.007865811102482738</v>
       </c>
       <c r="T21">
-        <v>0.006995574817652506</v>
+        <v>0.00786581110248274</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.470031111476</v>
+        <v>91.31228499999999</v>
       </c>
       <c r="H22">
-        <v>86.470031111476</v>
+        <v>273.936855</v>
       </c>
       <c r="I22">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="J22">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.8140282978361</v>
+        <v>13.11540266666667</v>
       </c>
       <c r="N22">
-        <v>12.8140282978361</v>
+        <v>39.346208</v>
       </c>
       <c r="O22">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="P22">
-        <v>0.1926914422318267</v>
+        <v>0.1873358091563171</v>
       </c>
       <c r="Q22">
-        <v>1108.029425577221</v>
+        <v>1197.597386188427</v>
       </c>
       <c r="R22">
-        <v>1108.029425577221</v>
+        <v>10778.37647569584</v>
       </c>
       <c r="S22">
-        <v>0.02198384686229905</v>
+        <v>0.02235479679168436</v>
       </c>
       <c r="T22">
-        <v>0.02198384686229905</v>
+        <v>0.02235479679168436</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.470031111476</v>
+        <v>91.31228499999999</v>
       </c>
       <c r="H23">
-        <v>86.470031111476</v>
+        <v>273.936855</v>
       </c>
       <c r="I23">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="J23">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.59555868437139</v>
+        <v>3.748853</v>
       </c>
       <c r="N23">
-        <v>3.59555868437139</v>
+        <v>11.246559</v>
       </c>
       <c r="O23">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="P23">
-        <v>0.05406835168591684</v>
+        <v>0.05354730068242562</v>
       </c>
       <c r="Q23">
-        <v>310.9080713007318</v>
+        <v>342.316333559105</v>
       </c>
       <c r="R23">
-        <v>310.9080713007318</v>
+        <v>3080.847002031945</v>
       </c>
       <c r="S23">
-        <v>0.006168568514475516</v>
+        <v>0.006389803587951572</v>
       </c>
       <c r="T23">
-        <v>0.006168568514475516</v>
+        <v>0.006389803587951573</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.470031111476</v>
+        <v>91.31228499999999</v>
       </c>
       <c r="H24">
-        <v>86.470031111476</v>
+        <v>273.936855</v>
       </c>
       <c r="I24">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="J24">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.4782383801393</v>
+        <v>20.20911666666666</v>
       </c>
       <c r="N24">
-        <v>19.4782383801393</v>
+        <v>60.62734999999999</v>
       </c>
       <c r="O24">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="P24">
-        <v>0.2929047570652064</v>
+        <v>0.2886599305644203</v>
       </c>
       <c r="Q24">
-        <v>1684.283878727391</v>
+        <v>1845.340620664916</v>
       </c>
       <c r="R24">
-        <v>1684.283878727391</v>
+        <v>16608.06558598425</v>
       </c>
       <c r="S24">
-        <v>0.03341701764219213</v>
+        <v>0.03444581214200679</v>
       </c>
       <c r="T24">
-        <v>0.03341701764219213</v>
+        <v>0.03444581214200679</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.470031111476</v>
+        <v>91.31228499999999</v>
       </c>
       <c r="H25">
-        <v>86.470031111476</v>
+        <v>273.936855</v>
       </c>
       <c r="I25">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="J25">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.7602332797391</v>
+        <v>28.371807</v>
       </c>
       <c r="N25">
-        <v>26.7602332797391</v>
+        <v>85.115421</v>
       </c>
       <c r="O25">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="P25">
-        <v>0.402408034794478</v>
+        <v>0.4052529347863861</v>
       </c>
       <c r="Q25">
-        <v>2313.958204249396</v>
+        <v>2590.694526748995</v>
       </c>
       <c r="R25">
-        <v>2313.958204249396</v>
+        <v>23316.25074074095</v>
       </c>
       <c r="S25">
-        <v>0.04591006487167878</v>
+        <v>0.04835886447541943</v>
       </c>
       <c r="T25">
-        <v>0.04591006487167878</v>
+        <v>0.04835886447541943</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.470031111476</v>
+        <v>91.31228499999999</v>
       </c>
       <c r="H26">
-        <v>86.470031111476</v>
+        <v>273.936855</v>
       </c>
       <c r="I26">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="J26">
-        <v>0.1140883404456038</v>
+        <v>0.1193300783889696</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.8521872921345</v>
+        <v>4.564941666666667</v>
       </c>
       <c r="N26">
-        <v>3.8521872921345</v>
+        <v>13.694825</v>
       </c>
       <c r="O26">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="P26">
-        <v>0.05792741422257209</v>
+        <v>0.06520402481045086</v>
       </c>
       <c r="Q26">
-        <v>333.0987549981027</v>
+        <v>416.8352544750416</v>
       </c>
       <c r="R26">
-        <v>333.0987549981027</v>
+        <v>3751.517290275375</v>
       </c>
       <c r="S26">
-        <v>0.006608842554958316</v>
+        <v>0.007780801391907417</v>
       </c>
       <c r="T26">
-        <v>0.006608842554958316</v>
+        <v>0.007780801391907418</v>
       </c>
     </row>
   </sheetData>
